--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devwork\multiprocessors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70E2D9B-67E5-4911-8B3D-C4C52022D3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CEB40C-E4B8-4353-A1D7-24114AEF6566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="330" windowWidth="21240" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="435" windowWidth="21240" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>EXAMPLE 1</t>
   </si>
@@ -393,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +446,9 @@
       <c r="B2">
         <v>2043.0123000000001</v>
       </c>
+      <c r="D2">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -446,6 +457,9 @@
       <c r="B3">
         <v>17849.9735</v>
       </c>
+      <c r="D3">
+        <v>18551.900000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -454,6 +468,9 @@
       <c r="B4">
         <v>1434.2941000000001</v>
       </c>
+      <c r="D4">
+        <v>231.3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -462,6 +479,9 @@
       <c r="B5">
         <v>1396.2565999999999</v>
       </c>
+      <c r="D5">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -470,6 +490,9 @@
       <c r="B6">
         <v>4423.8644999999997</v>
       </c>
+      <c r="D6">
+        <v>2205.9</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -478,6 +501,9 @@
       <c r="B7">
         <v>8213.9009000000005</v>
       </c>
+      <c r="D7">
+        <v>4069.8</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -486,6 +512,9 @@
       <c r="B8">
         <v>1642.9662000000001</v>
       </c>
+      <c r="D8">
+        <v>897</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -493,6 +522,98 @@
       </c>
       <c r="B9">
         <v>24434.2713</v>
+      </c>
+      <c r="D9">
+        <v>946.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="e">
+        <f>D2/E2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" ref="E14:E20" si="0">D3/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devwork\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CEB40C-E4B8-4353-A1D7-24114AEF6566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4405A57C-7F25-44EB-BBE6-F0B7A5A01B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="435" windowWidth="21240" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="315" windowWidth="18600" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -116,11 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +405,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,8 +447,14 @@
       <c r="B2">
         <v>2043.0123000000001</v>
       </c>
+      <c r="C2">
+        <v>2635.1776</v>
+      </c>
       <c r="D2">
         <v>128.6</v>
+      </c>
+      <c r="E2">
+        <v>79.099999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -457,8 +464,14 @@
       <c r="B3">
         <v>17849.9735</v>
       </c>
+      <c r="C3">
+        <v>12119.0353</v>
+      </c>
       <c r="D3">
         <v>18551.900000000001</v>
+      </c>
+      <c r="E3">
+        <v>3500.7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -468,8 +481,14 @@
       <c r="B4">
         <v>1434.2941000000001</v>
       </c>
+      <c r="C4">
+        <v>1797.1104</v>
+      </c>
       <c r="D4">
         <v>231.3</v>
+      </c>
+      <c r="E4">
+        <v>81.8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -479,8 +498,14 @@
       <c r="B5">
         <v>1396.2565999999999</v>
       </c>
+      <c r="C5">
+        <v>1606.1445000000001</v>
+      </c>
       <c r="D5">
         <v>127.1</v>
+      </c>
+      <c r="E5">
+        <v>75.7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -490,8 +515,14 @@
       <c r="B6">
         <v>4423.8644999999997</v>
       </c>
+      <c r="C6">
+        <v>4424.1746999999996</v>
+      </c>
       <c r="D6">
         <v>2205.9</v>
+      </c>
+      <c r="E6">
+        <v>1261.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -501,8 +532,14 @@
       <c r="B7">
         <v>8213.9009000000005</v>
       </c>
+      <c r="C7">
+        <v>4230.0846000000001</v>
+      </c>
       <c r="D7">
         <v>4069.8</v>
+      </c>
+      <c r="E7">
+        <v>2044.2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -512,8 +549,14 @@
       <c r="B8">
         <v>1642.9662000000001</v>
       </c>
+      <c r="C8">
+        <v>4280.3306000000002</v>
+      </c>
       <c r="D8">
         <v>897</v>
+      </c>
+      <c r="E8">
+        <v>419.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -523,8 +566,14 @@
       <c r="B9">
         <v>24434.2713</v>
       </c>
+      <c r="C9">
+        <v>6196.9587000000001</v>
+      </c>
       <c r="D9">
         <v>946.9</v>
+      </c>
+      <c r="E9">
+        <v>265.10000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -548,72 +597,72 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="E13" t="e">
+      <c r="E13" s="2">
         <f>D2/E2</f>
-        <v>#DIV/0!</v>
+        <v>1.6257901390644753</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" t="e">
+      <c r="E14" s="2">
         <f t="shared" ref="E14:E20" si="0">D3/E3</f>
-        <v>#DIV/0!</v>
+        <v>5.2994829605507476</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" t="e">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.8276283618581908</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" t="e">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.6789960369881107</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="e">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.7486325802615934</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="E18" t="e">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.990901085999413</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="e">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.138259833134684</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" t="e">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3.5718596755941152</v>
       </c>
     </row>
   </sheetData>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devwork\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4405A57C-7F25-44EB-BBE6-F0B7A5A01B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E2D00-2D51-4384-B717-F895F400EFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="315" windowWidth="18600" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="150" windowWidth="16485" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -87,8 +87,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -116,12 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,136 +454,203 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2043.0123000000001</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>2156.1129000000001</v>
+      </c>
+      <c r="C2" s="2">
         <v>2635.1776</v>
       </c>
-      <c r="D2">
-        <v>128.6</v>
-      </c>
-      <c r="E2">
-        <v>79.099999999999994</v>
+      <c r="D2" s="2">
+        <v>125.8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>62.1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="G2" s="2">
+        <v>427.55119999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <v>699.13610000000006</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>17849.9735</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>12119.0353</v>
       </c>
-      <c r="D3">
-        <v>18551.900000000001</v>
-      </c>
-      <c r="E3">
-        <v>3500.7</v>
+      <c r="D3" s="2">
+        <v>18492.8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3018.3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3090.3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3389.6966000000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2993.9466000000002</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1434.2941000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1797.1104</v>
       </c>
-      <c r="D4">
-        <v>231.3</v>
-      </c>
-      <c r="E4">
-        <v>81.8</v>
+      <c r="D4" s="2">
+        <v>238.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F4" s="2">
+        <v>71.3</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>758.90729999999996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1396.2565999999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1606.1445000000001</v>
       </c>
-      <c r="D5">
-        <v>127.1</v>
-      </c>
-      <c r="E5">
-        <v>75.7</v>
+      <c r="D5" s="2">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F5" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1579.0781999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>4423.8644999999997</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>4424.1746999999996</v>
       </c>
-      <c r="D6">
-        <v>2205.9</v>
-      </c>
-      <c r="E6">
-        <v>1261.5</v>
+      <c r="D6" s="2">
+        <v>2208.1999999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1115.9000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1077.9000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>24404.793900000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1755.4161999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>8213.9009000000005</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>4230.0846000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>4069.8</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2044.2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1918.2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>11984.6973</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1883.9799</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1642.9662000000001</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>4280.3306000000002</v>
       </c>
-      <c r="D8">
-        <v>897</v>
-      </c>
-      <c r="E8">
-        <v>419.5</v>
+      <c r="D8" s="2">
+        <v>942.7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>373.3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>368.7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>576.17470000000003</v>
+      </c>
+      <c r="H8" s="2">
+        <v>801.13750000000005</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>24434.2713</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>6196.9587000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>946.9</v>
       </c>
-      <c r="E9">
-        <v>265.10000000000002</v>
+      <c r="E9" s="2">
+        <v>221</v>
+      </c>
+      <c r="F9" s="2">
+        <v>238.2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1918.6635000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1909.3549</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -597,18 +674,42 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <f>D2/E2</f>
-        <v>1.6257901390644753</v>
+        <v>2.0257648953301128</v>
+      </c>
+      <c r="F13" s="4">
+        <f>D2/F2</f>
+        <v>1.9089529590288314</v>
+      </c>
+      <c r="G13" s="3">
+        <f>B2/G2</f>
+        <v>5.0429349748053571</v>
+      </c>
+      <c r="H13" s="2">
+        <f>B2/H2</f>
+        <v>3.0839673419810532</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" ref="E14:E20" si="0">D3/E3</f>
-        <v>5.2994829605507476</v>
+      <c r="E14" s="3">
+        <f t="shared" ref="E14:E19" si="0">D3/E3</f>
+        <v>6.1268926216744521</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:F20" si="1">D3/F3</f>
+        <v>5.9841439342458651</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:G20" si="2">B3/G3</f>
+        <v>5.265950203330882</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ref="H14:H20" si="3">B3/H3</f>
+        <v>5.9620213333130252</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -617,28 +718,64 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>2.8276283618581908</v>
+        <v>3.237771739130435</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3422159887798037</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8899463742146112</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>1.6789960369881107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.2236024844720492</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3134087237479806</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.88422257998368925</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>1.7486325802615934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.9788511515368756</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0486130438816215</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18127030771605901</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>2.520122863170569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -646,23 +783,59 @@
         <f t="shared" si="0"/>
         <v>1.990901085999413</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1216765717860495</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.68536573718887339</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
+        <v>4.3598665251152626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>2.138259833134684</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.5253147602464505</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5568212639001899</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8515070168822061</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0507917804371907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5718596755941152</v>
+      <c r="E20" s="4">
+        <f>D9/E9</f>
+        <v>4.2846153846153845</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>3.975230898404702</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>12.735047755898831</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
+        <v>12.797134414351151</v>
       </c>
     </row>
   </sheetData>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devwork\multiprocessors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38E2D00-2D51-4384-B717-F895F400EFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE7FF3-A101-40DA-938A-D571522AFA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="150" windowWidth="16485" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10785" yWindow="1710" windowWidth="25725" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>EXAMPLE 1</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>CUDA</t>
+  </si>
+  <si>
+    <t>THREADS =</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
@@ -132,6 +135,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,419 +431,225 @@
     <col min="2" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2156.1129000000001</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2635.1776</v>
-      </c>
-      <c r="D2" s="2">
-        <v>125.8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>62.1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="G2" s="2">
-        <v>427.55119999999999</v>
-      </c>
-      <c r="H2" s="2">
-        <v>699.13610000000006</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>17849.9735</v>
-      </c>
-      <c r="C3" s="2">
-        <v>12119.0353</v>
-      </c>
-      <c r="D3" s="2">
-        <v>18492.8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3018.3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3090.3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3389.6966000000002</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2993.9466000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1434.2941000000001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1797.1104</v>
-      </c>
-      <c r="D4" s="2">
-        <v>238.3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F4" s="2">
-        <v>71.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>758.90729999999996</v>
-      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1396.2565999999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1606.1445000000001</v>
-      </c>
-      <c r="D5" s="2">
-        <v>143.19999999999999</v>
-      </c>
-      <c r="E5" s="2">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="F5" s="2">
-        <v>61.9</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1579.0781999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4423.8644999999997</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4424.1746999999996</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2208.1999999999998</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1115.9000000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1077.9000000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>24404.793900000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1755.4161999999999</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>8213.9009000000005</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4230.0846000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4069.8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2044.2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1918.2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>11984.6973</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1883.9799</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1642.9662000000001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4280.3306000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>942.7</v>
-      </c>
-      <c r="E8" s="2">
-        <v>373.3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>368.7</v>
-      </c>
-      <c r="G8" s="2">
-        <v>576.17470000000003</v>
-      </c>
-      <c r="H8" s="2">
-        <v>801.13750000000005</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>24434.2713</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6196.9587000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>946.9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>221</v>
-      </c>
-      <c r="F9" s="2">
-        <v>238.2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1918.6635000000001</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1909.3549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I13" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f>D2/E2</f>
-        <v>2.0257648953301128</v>
-      </c>
-      <c r="F13" s="4">
-        <f>D2/F2</f>
-        <v>1.9089529590288314</v>
-      </c>
-      <c r="G13" s="3">
-        <f>B2/G2</f>
-        <v>5.0429349748053571</v>
-      </c>
-      <c r="H13" s="2">
-        <f>B2/H2</f>
-        <v>3.0839673419810532</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" ref="E14:E19" si="0">D3/E3</f>
-        <v>6.1268926216744521</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" ref="F14:F20" si="1">D3/F3</f>
-        <v>5.9841439342458651</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" ref="G14:G20" si="2">B3/G3</f>
-        <v>5.265950203330882</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" ref="H14:H20" si="3">B3/H3</f>
-        <v>5.9620213333130252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>3.237771739130435</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3422159887798037</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8899463742146112</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>2.2236024844720492</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3134087237479806</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.88422257998368925</v>
-      </c>
-      <c r="H16" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9788511515368756</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>2.0486130438816215</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18127030771605901</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>2.520122863170569</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>1.990901085999413</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
-        <v>2.1216765717860495</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.68536573718887339</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="3"/>
-        <v>4.3598665251152626</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5253147602464505</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5568212639001899</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="2"/>
-        <v>2.8515070168822061</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="3"/>
-        <v>2.0507917804371907</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="4">
-        <f>D9/E9</f>
-        <v>4.2846153846153845</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>3.975230898404702</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="2"/>
-        <v>12.735047755898831</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>12.797134414351151</v>
-      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE7FF3-A101-40DA-938A-D571522AFA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6642203-7691-4160-8CB7-318BE962CE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="1710" windowWidth="25725" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8355" yWindow="1380" windowWidth="25725" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>EXAMPLE 1</t>
   </si>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>THREADS =</t>
+  </si>
+  <si>
+    <t>SUM ARRAY</t>
+  </si>
+  <si>
+    <t>MIN ARRAY</t>
+  </si>
+  <si>
+    <t>EVEN ARRAY</t>
+  </si>
+  <si>
+    <t>BUBBLE</t>
+  </si>
+  <si>
+    <t>MAT X VEC</t>
+  </si>
+  <si>
+    <t>PRIME</t>
+  </si>
+  <si>
+    <t>ENUMERATION</t>
   </si>
 </sst>
 </file>
@@ -422,12 +443,12 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,7 +488,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -479,7 +500,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -491,7 +512,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -503,7 +524,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -514,7 +535,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -526,7 +547,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -538,7 +559,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6642203-7691-4160-8CB7-318BE962CE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215F909-77B5-43E2-9F49-4CD7C3E7D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="1380" windowWidth="25725" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="2070" windowWidth="25725" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,31 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t>EXAMPLE 1</t>
-  </si>
-  <si>
-    <t>EXAMPLE 2</t>
-  </si>
-  <si>
-    <t>EXAMPLE 3</t>
-  </si>
-  <si>
-    <t>EXAMPLE 4</t>
-  </si>
-  <si>
-    <t>EXAMPLE 5</t>
-  </si>
-  <si>
-    <t>EXAMPLE 6</t>
-  </si>
-  <si>
-    <t>EXAMPLE 7</t>
-  </si>
-  <si>
-    <t>EXAMPLE 8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>C</t>
   </si>
@@ -92,19 +68,37 @@
     <t>MIN ARRAY</t>
   </si>
   <si>
-    <t>EVEN ARRAY</t>
-  </si>
-  <si>
-    <t>BUBBLE</t>
-  </si>
-  <si>
     <t>MAT X VEC</t>
   </si>
   <si>
-    <t>PRIME</t>
-  </si>
-  <si>
     <t>ENUMERATION</t>
+  </si>
+  <si>
+    <t>INTEGRATION</t>
+  </si>
+  <si>
+    <t>EVEN NUMBERS</t>
+  </si>
+  <si>
+    <t>BUBBLE SORT</t>
+  </si>
+  <si>
+    <t>PRIME NUMBERS</t>
+  </si>
+  <si>
+    <t>FRACTAL</t>
+  </si>
+  <si>
+    <t>BLUR</t>
+  </si>
+  <si>
+    <t>GRAY</t>
+  </si>
+  <si>
+    <t>MERGE SORT</t>
+  </si>
+  <si>
+    <t>QUICK SORT</t>
   </si>
 </sst>
 </file>
@@ -440,237 +434,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>7</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215F909-77B5-43E2-9F49-4CD7C3E7D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642211D4-271B-4CA5-BD80-9A9530621810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="2070" windowWidth="25725" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18420" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,9 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>2650.7782999999999</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -503,7 +505,9 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>1894.2938999999999</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -518,7 +522,9 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>16164.9395</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -547,7 +553,9 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>120.9529</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642211D4-271B-4CA5-BD80-9A9530621810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D07FEB2-A728-42CF-A439-8F52F154FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18420" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25665" yWindow="465" windowWidth="12255" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
@@ -154,6 +163,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +447,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +580,9 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>1041.2260000000001</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -615,6 +627,9 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
+      <c r="C11">
+        <v>1562.1591000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -623,6 +638,9 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
+      <c r="C12">
+        <v>5965.9228999999996</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -639,6 +657,9 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
+      <c r="C14">
+        <v>2538.723</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -647,10 +668,13 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
+      <c r="C15">
+        <v>541.55970000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
@@ -805,6 +829,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D07FEB2-A728-42CF-A439-8F52F154FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AE7F5A-647F-4CCA-B97D-8EC580C549DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25665" yWindow="465" windowWidth="12255" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19665" yWindow="180" windowWidth="18420" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,9 @@
       <c r="C3" s="2">
         <v>2650.7782999999999</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>2709.0873999999999</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -518,7 +520,9 @@
       <c r="C4" s="2">
         <v>1894.2938999999999</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>2408.0423000000001</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -535,7 +539,9 @@
       <c r="C5" s="2">
         <v>16164.9395</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>9310.2345000000005</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -566,7 +572,9 @@
       <c r="C7" s="2">
         <v>120.9529</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>127.8335</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AE7F5A-647F-4CCA-B97D-8EC580C549DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7635800C-4C69-4657-9BDA-17EBA6A5739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19665" yWindow="180" windowWidth="18420" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13320" yWindow="975" windowWidth="15180" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,9 @@
       <c r="D3" s="2">
         <v>2709.0873999999999</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>27.1</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -523,7 +525,9 @@
       <c r="D4" s="2">
         <v>2408.0423000000001</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>48.6</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -542,7 +546,9 @@
       <c r="D5" s="2">
         <v>9310.2345000000005</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>7565.8</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -575,7 +581,9 @@
       <c r="D7" s="2">
         <v>127.8335</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>45.9</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -591,8 +599,12 @@
       <c r="C8" s="2">
         <v>1041.2260000000001</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>1170.335</v>
+      </c>
+      <c r="E8" s="2">
+        <v>117.7</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -638,6 +650,12 @@
       <c r="C11">
         <v>1562.1591000000001</v>
       </c>
+      <c r="D11">
+        <v>1531.9671000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>676.4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -649,6 +667,12 @@
       <c r="C12">
         <v>5965.9228999999996</v>
       </c>
+      <c r="D12">
+        <v>6039.2622000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>663.4</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -657,6 +681,7 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -668,6 +693,12 @@
       <c r="C14">
         <v>2538.723</v>
       </c>
+      <c r="D14">
+        <v>4167.5452999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2328.4</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -678,6 +709,12 @@
       </c>
       <c r="C15">
         <v>541.55970000000002</v>
+      </c>
+      <c r="D15">
+        <v>5897.7214999999997</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3702</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7635800C-4C69-4657-9BDA-17EBA6A5739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB8202B-4E39-4F66-A32B-2011D07B9830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="975" windowWidth="15180" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19605" yWindow="165" windowWidth="15180" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,9 @@
       <c r="E3" s="2">
         <v>27.1</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>16.100000000000001</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -528,7 +530,9 @@
       <c r="E4" s="2">
         <v>48.6</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>17.8</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -549,7 +553,9 @@
       <c r="E5" s="2">
         <v>7565.8</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>1321.4</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -605,7 +611,9 @@
       <c r="E8" s="2">
         <v>117.7</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>59.6</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -656,6 +664,9 @@
       <c r="E11" s="2">
         <v>676.4</v>
       </c>
+      <c r="F11">
+        <v>379.4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -673,6 +684,9 @@
       <c r="E12" s="2">
         <v>663.4</v>
       </c>
+      <c r="F12">
+        <v>122.1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -698,6 +712,9 @@
       </c>
       <c r="E14" s="2">
         <v>2328.4</v>
+      </c>
+      <c r="F14">
+        <v>1109.5999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -745,7 +762,10 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="2">
+        <f>E3/F3</f>
+        <v>1.6832298136645962</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2"/>
@@ -757,7 +777,10 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="2">
+        <f>E4/F4</f>
+        <v>2.7303370786516852</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
@@ -769,7 +792,10 @@
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <f>E5/F5</f>
+        <v>5.7255940668987435</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="I19" s="2"/>
     </row>
@@ -780,7 +806,7 @@
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="2"/>
     </row>
@@ -791,7 +817,7 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="4"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -803,7 +829,10 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <f>E8/F8</f>
+        <v>1.9748322147651007</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
@@ -827,7 +856,7 @@
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
@@ -839,6 +868,10 @@
       <c r="B25" t="s">
         <v>17</v>
       </c>
+      <c r="F25" s="2">
+        <f>E11/F11</f>
+        <v>1.782814971006853</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -847,6 +880,10 @@
       <c r="B26" t="s">
         <v>18</v>
       </c>
+      <c r="F26" s="2">
+        <f>E12/F12</f>
+        <v>5.4332514332514332</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -855,6 +892,7 @@
       <c r="B27" t="s">
         <v>19</v>
       </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -863,6 +901,10 @@
       <c r="B28" t="s">
         <v>20</v>
       </c>
+      <c r="F28" s="2">
+        <f>E14/F14</f>
+        <v>2.0984138428262438</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -871,6 +913,7 @@
       <c r="B29" t="s">
         <v>21</v>
       </c>
+      <c r="F29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB8202B-4E39-4F66-A32B-2011D07B9830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE6F029-1867-41D8-BB45-5AF20C811878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19605" yWindow="165" windowWidth="15180" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="885" windowWidth="19575" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +510,9 @@
       <c r="F3" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>18.7</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
@@ -590,7 +592,9 @@
       <c r="E7" s="2">
         <v>45.9</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>15.15</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -766,7 +770,10 @@
         <f>E3/F3</f>
         <v>1.6832298136645962</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <f>E3/G3</f>
+        <v>1.4491978609625671</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="2"/>
     </row>
@@ -817,7 +824,10 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <f>E7/F7</f>
+        <v>3.0297029702970297</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE6F029-1867-41D8-BB45-5AF20C811878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF987E8-5A1D-4A8F-BD10-841434E8D02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="885" windowWidth="19575" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18810" yWindow="570" windowWidth="19575" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,9 @@
       <c r="F4" s="2">
         <v>17.8</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>19.7</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
@@ -558,7 +560,9 @@
       <c r="F5" s="2">
         <v>1321.4</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>1218.4000000000001</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
@@ -595,7 +599,9 @@
       <c r="F7" s="2">
         <v>15.15</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>456.3</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
@@ -618,7 +624,9 @@
       <c r="F8" s="2">
         <v>59.6</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>55.1</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
@@ -671,6 +679,9 @@
       <c r="F11">
         <v>379.4</v>
       </c>
+      <c r="G11">
+        <v>352.2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -691,6 +702,9 @@
       <c r="F12">
         <v>122.1</v>
       </c>
+      <c r="G12">
+        <v>122.8</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -719,6 +733,9 @@
       </c>
       <c r="F14">
         <v>1109.5999999999999</v>
+      </c>
+      <c r="G14">
+        <v>1118.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -766,7 +783,7 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <f>E3/F3</f>
         <v>1.6832298136645962</v>
       </c>
@@ -784,11 +801,14 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <f>E4/F4</f>
         <v>2.7303370786516852</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <f>E4/G4</f>
+        <v>2.467005076142132</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
     </row>
@@ -803,7 +823,10 @@
         <f>E5/F5</f>
         <v>5.7255940668987435</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <f>E5/G5</f>
+        <v>6.209619172685489</v>
+      </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -828,7 +851,10 @@
         <f>E7/F7</f>
         <v>3.0297029702970297</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4">
+        <f>E7/G7</f>
+        <v>0.10059171597633136</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>
@@ -843,7 +869,10 @@
         <f>E8/F8</f>
         <v>1.9748322147651007</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="3">
+        <f>E8/G8</f>
+        <v>2.1361161524500907</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
     </row>
@@ -882,6 +911,10 @@
         <f>E11/F11</f>
         <v>1.782814971006853</v>
       </c>
+      <c r="G25" s="3">
+        <f>E11/G11</f>
+        <v>1.9204997160704145</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -890,9 +923,13 @@
       <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <f>E12/F12</f>
         <v>5.4332514332514332</v>
+      </c>
+      <c r="G26" s="2">
+        <f>E12/G12</f>
+        <v>5.4022801302931596</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -911,9 +948,13 @@
       <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <f>E14/F14</f>
         <v>2.0984138428262438</v>
+      </c>
+      <c r="G28" s="2">
+        <f>E14/G14</f>
+        <v>2.0817165847116677</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF987E8-5A1D-4A8F-BD10-841434E8D02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A559DCDC-3F0C-40D7-9F37-B8022B10CFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18810" yWindow="570" windowWidth="19575" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18555" yWindow="990" windowWidth="19575" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,9 @@
       <c r="G3" s="2">
         <v>18.7</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>297.30869999999999</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -538,7 +540,9 @@
       <c r="G4" s="2">
         <v>19.7</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>168.6404</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -783,7 +787,7 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <f>E3/F3</f>
         <v>1.6832298136645962</v>
       </c>
@@ -791,7 +795,10 @@
         <f>E3/G3</f>
         <v>1.4491978609625671</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <f>C3/H3</f>
+        <v>8.915912316053987</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -801,7 +808,7 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <f>E4/F4</f>
         <v>2.7303370786516852</v>
       </c>
@@ -809,7 +816,10 @@
         <f>E4/G4</f>
         <v>2.467005076142132</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="3">
+        <f>C4/H4</f>
+        <v>11.232740790463021</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A559DCDC-3F0C-40D7-9F37-B8022B10CFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9484FAE-62A7-45B7-923C-5EB3CAB41FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18555" yWindow="990" windowWidth="19575" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18645" yWindow="1125" windowWidth="19575" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,9 @@
       <c r="G5" s="2">
         <v>1218.4000000000001</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>1784.4763</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -606,7 +608,9 @@
       <c r="G7" s="2">
         <v>456.3</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>63.197000000000003</v>
+      </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -631,7 +635,9 @@
       <c r="G8" s="2">
         <v>55.1</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>215.2483</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -686,6 +692,9 @@
       <c r="G11">
         <v>352.2</v>
       </c>
+      <c r="H11" s="2">
+        <v>290.61660000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -709,6 +718,9 @@
       <c r="G12">
         <v>122.8</v>
       </c>
+      <c r="H12" s="2">
+        <v>990.41700000000003</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -740,6 +752,9 @@
       </c>
       <c r="G14">
         <v>1118.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1771.2599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -833,9 +848,13 @@
         <f>E5/F5</f>
         <v>5.7255940668987435</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <f>E5/G5</f>
         <v>6.209619172685489</v>
+      </c>
+      <c r="H19" s="3">
+        <f>C5/H5</f>
+        <v>9.0586462257862426</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -857,7 +876,7 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <f>E7/F7</f>
         <v>3.0297029702970297</v>
       </c>
@@ -865,7 +884,10 @@
         <f>E7/G7</f>
         <v>0.10059171597633136</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>C7/H7</f>
+        <v>1.9139025586657594</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -879,11 +901,14 @@
         <f>E8/F8</f>
         <v>1.9748322147651007</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <f>E8/G8</f>
         <v>2.1361161524500907</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="3">
+        <f>C8/H8</f>
+        <v>4.8373250799193306</v>
+      </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -921,9 +946,13 @@
         <f>E11/F11</f>
         <v>1.782814971006853</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <f>E11/G11</f>
         <v>1.9204997160704145</v>
+      </c>
+      <c r="H25" s="3">
+        <f>C11/H11</f>
+        <v>5.3753264610486804</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -933,7 +962,7 @@
       <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <f>E12/F12</f>
         <v>5.4332514332514332</v>
       </c>
@@ -941,6 +970,10 @@
         <f>E12/G12</f>
         <v>5.4022801302931596</v>
       </c>
+      <c r="H26" s="3">
+        <f>C12/H12</f>
+        <v>6.0236475141278873</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -965,6 +998,10 @@
       <c r="G28" s="2">
         <f>E14/G14</f>
         <v>2.0817165847116677</v>
+      </c>
+      <c r="H28" s="2">
+        <f>C14/H14</f>
+        <v>1.4332865549544704</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9484FAE-62A7-45B7-923C-5EB3CAB41FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E01638-A721-4EAA-83BB-E97584E87D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18645" yWindow="1125" windowWidth="19575" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19335" yWindow="930" windowWidth="19575" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,9 @@
       <c r="H3" s="2">
         <v>297.30869999999999</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>362.78210000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -543,7 +545,9 @@
       <c r="H4" s="2">
         <v>168.6404</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>570.87220000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -570,7 +574,9 @@
       <c r="H5" s="2">
         <v>1784.4763</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>1421.3607</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -611,7 +617,9 @@
       <c r="H7" s="2">
         <v>63.197000000000003</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>21.626000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -638,7 +646,9 @@
       <c r="H8" s="2">
         <v>215.2483</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>222.4032</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -695,6 +705,9 @@
       <c r="H11" s="2">
         <v>290.61660000000001</v>
       </c>
+      <c r="I11" s="2">
+        <v>463.90750000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -721,6 +734,9 @@
       <c r="H12" s="2">
         <v>990.41700000000003</v>
       </c>
+      <c r="I12" s="2">
+        <v>1031.453</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -756,6 +772,9 @@
       <c r="H14" s="2">
         <v>1771.2599</v>
       </c>
+      <c r="I14">
+        <v>1121.3049000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -772,6 +791,9 @@
       </c>
       <c r="E15" s="2">
         <v>3702</v>
+      </c>
+      <c r="I15">
+        <v>1556.8062</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -814,7 +836,10 @@
         <f>C3/H3</f>
         <v>8.915912316053987</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <f>D3/I3</f>
+        <v>7.4675332658364342</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -835,7 +860,10 @@
         <f>C4/H4</f>
         <v>11.232740790463021</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <f>D4/I4</f>
+        <v>4.2181810569861344</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -856,7 +884,10 @@
         <f>C5/H5</f>
         <v>9.0586462257862426</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <f>D5/I5</f>
+        <v>6.5502264836786335</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -876,7 +907,7 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <f>E7/F7</f>
         <v>3.0297029702970297</v>
       </c>
@@ -888,7 +919,10 @@
         <f>C7/H7</f>
         <v>1.9139025586657594</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <f>D7/I7</f>
+        <v>5.9111023767687039</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -905,11 +939,14 @@
         <f>E8/G8</f>
         <v>2.1361161524500907</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <f>C8/H8</f>
         <v>4.8373250799193306</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <f>D8/I8</f>
+        <v>5.2622219464468136</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -954,6 +991,10 @@
         <f>C11/H11</f>
         <v>5.3753264610486804</v>
       </c>
+      <c r="I25" s="2">
+        <f>D11/I11</f>
+        <v>3.302311559955379</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -974,6 +1015,10 @@
         <f>C12/H12</f>
         <v>6.0236475141278873</v>
       </c>
+      <c r="I26" s="2">
+        <f>D12/I12</f>
+        <v>5.855101686649804</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -991,7 +1036,7 @@
       <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <f>E14/F14</f>
         <v>2.0984138428262438</v>
       </c>
@@ -1003,6 +1048,10 @@
         <f>C14/H14</f>
         <v>1.4332865549544704</v>
       </c>
+      <c r="I28" s="3">
+        <f>D14/I14</f>
+        <v>3.7166923108959922</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1012,6 +1061,10 @@
         <v>21</v>
       </c>
       <c r="F29" s="2"/>
+      <c r="I29" s="2">
+        <f>D15/I15</f>
+        <v>3.7883466162968773</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\multiprocessors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E01638-A721-4EAA-83BB-E97584E87D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEF795D-016B-41E2-9046-B2053FF4B27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19335" yWindow="930" windowWidth="19575" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="1005" windowWidth="18795" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>C</t>
   </si>
@@ -99,13 +99,19 @@
   </si>
   <si>
     <t>QUICK SORT</t>
+  </si>
+  <si>
+    <t>C / Server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +136,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,10 +161,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
@@ -164,8 +178,12 @@
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,54 +462,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.28515625" customWidth="1"/>
+    <col min="3" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -502,25 +524,31 @@
         <v>2650.7782999999999</v>
       </c>
       <c r="D3" s="2">
+        <v>2261.1819999999998</v>
+      </c>
+      <c r="E3" s="2">
         <v>2709.0873999999999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>27.1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>18.7</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>297.30869999999999</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>362.78210000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -531,25 +559,31 @@
         <v>1894.2938999999999</v>
       </c>
       <c r="D4" s="2">
+        <v>1978.0098</v>
+      </c>
+      <c r="E4" s="2">
         <v>2408.0423000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>48.6</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>17.8</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>19.7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>168.6404</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>570.87220000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -560,25 +594,31 @@
         <v>16164.9395</v>
       </c>
       <c r="D5" s="2">
+        <v>14902.281000000001</v>
+      </c>
+      <c r="E5" s="2">
         <v>9310.2345000000005</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>7565.8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1321.4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>1218.4000000000001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>1784.4763</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>1421.3607</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -591,8 +631,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -603,25 +644,31 @@
         <v>120.9529</v>
       </c>
       <c r="D7" s="2">
+        <v>256.86239999999998</v>
+      </c>
+      <c r="E7" s="2">
         <v>127.8335</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45.9</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>15.15</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>456.3</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>63.197000000000003</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>21.626000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>17.366800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -632,25 +679,31 @@
         <v>1041.2260000000001</v>
       </c>
       <c r="D8" s="2">
+        <v>1544.8704</v>
+      </c>
+      <c r="E8" s="2">
         <v>1170.335</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>117.7</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>59.6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>55.1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>215.2483</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>222.4032</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -664,8 +717,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -679,8 +733,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -690,26 +745,26 @@
       <c r="C11">
         <v>1562.1591000000001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1531.9671000000001</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>676.4</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>379.4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>352.2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>290.61660000000001</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>463.90750000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -719,35 +774,35 @@
       <c r="C12">
         <v>5965.9228999999996</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>6039.2622000000001</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>663.4</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>122.1</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>122.8</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>990.41700000000003</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>1031.453</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -757,26 +812,27 @@
       <c r="C14">
         <v>2538.723</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8"/>
+      <c r="E14">
         <v>4167.5452999999998</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>2328.4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1109.5999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1118.5</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>1771.2599</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1121.3049000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -786,285 +842,314 @@
       <c r="C15">
         <v>541.55970000000002</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5897.7214999999997</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>3702</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1556.8062</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="4">
-        <f>E3/F3</f>
+      <c r="G17" s="4">
+        <f>F3/G3</f>
         <v>1.6832298136645962</v>
       </c>
-      <c r="G17" s="4">
-        <f>E3/G3</f>
+      <c r="H17" s="4">
+        <f>F3/H3</f>
         <v>1.4491978609625671</v>
       </c>
-      <c r="H17" s="3">
-        <f>C3/H3</f>
+      <c r="I17" s="4">
+        <f>C3/I3</f>
         <v>8.915912316053987</v>
       </c>
-      <c r="I17" s="2">
-        <f>D3/I3</f>
+      <c r="J17" s="2">
+        <f t="shared" ref="J17:J19" si="0">E3/J3</f>
         <v>7.4675332658364342</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="10">
+        <f>D3/K3</f>
+        <v>426638.11320754711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
-        <f>E4/F4</f>
+      <c r="G18" s="4">
+        <f>F4/G4</f>
         <v>2.7303370786516852</v>
       </c>
-      <c r="G18" s="2">
-        <f>E4/G4</f>
+      <c r="H18" s="2">
+        <f>F4/H4</f>
         <v>2.467005076142132</v>
       </c>
-      <c r="H18" s="3">
-        <f>C4/H4</f>
+      <c r="I18" s="4">
+        <f>C4/I4</f>
         <v>11.232740790463021</v>
       </c>
-      <c r="I18" s="2">
-        <f>D4/I4</f>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
         <v>4.2181810569861344</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="10">
+        <f>D4/K4</f>
+        <v>1798190.7272727273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2">
-        <f>E5/F5</f>
+      <c r="G19" s="2">
+        <f>F5/G5</f>
         <v>5.7255940668987435</v>
       </c>
-      <c r="G19" s="4">
-        <f>E5/G5</f>
+      <c r="H19" s="4">
+        <f>F5/H5</f>
         <v>6.209619172685489</v>
       </c>
-      <c r="H19" s="3">
-        <f>C5/H5</f>
+      <c r="I19" s="4">
+        <f>C5/I5</f>
         <v>9.0586462257862426</v>
       </c>
-      <c r="I19" s="2">
-        <f>D5/I5</f>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
         <v>6.5502264836786335</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="10">
+        <f>D5/K5</f>
+        <v>3465646.7441860465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="4">
-        <f>E7/F7</f>
+      <c r="G21" s="4">
+        <f>F7/G7</f>
         <v>3.0297029702970297</v>
       </c>
-      <c r="G21" s="4">
-        <f>E7/G7</f>
+      <c r="H21" s="4">
+        <f>F7/H7</f>
         <v>0.10059171597633136</v>
       </c>
-      <c r="H21" s="2">
-        <f>C7/H7</f>
+      <c r="I21" s="2">
+        <f>C7/I7</f>
         <v>1.9139025586657594</v>
       </c>
-      <c r="I21" s="3">
-        <f>D7/I7</f>
+      <c r="J21" s="4">
+        <f>E7/J7</f>
         <v>5.9111023767687039</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="10">
+        <f t="shared" ref="K18:K29" si="1">D7/K7</f>
+        <v>14.790427712647118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="2">
-        <f>E8/F8</f>
+      <c r="G22" s="2">
+        <f>F8/G8</f>
         <v>1.9748322147651007</v>
       </c>
-      <c r="G22" s="4">
-        <f>E8/G8</f>
+      <c r="H22" s="4">
+        <f>F8/H8</f>
         <v>2.1361161524500907</v>
       </c>
-      <c r="H22" s="4">
-        <f>C8/H8</f>
+      <c r="I22" s="4">
+        <f>C8/I8</f>
         <v>4.8373250799193306</v>
       </c>
-      <c r="I22" s="3">
-        <f>D8/I8</f>
+      <c r="J22" s="4">
+        <f>E8/J8</f>
         <v>5.2622219464468136</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="10">
+        <f t="shared" si="1"/>
+        <v>343304.53333333338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="2">
-        <f>E11/F11</f>
+      <c r="G25" s="2">
+        <f>F11/G11</f>
         <v>1.782814971006853</v>
       </c>
-      <c r="G25" s="4">
-        <f>E11/G11</f>
+      <c r="H25" s="4">
+        <f>F11/H11</f>
         <v>1.9204997160704145</v>
       </c>
-      <c r="H25" s="3">
-        <f>C11/H11</f>
+      <c r="I25" s="3">
+        <f>C11/I11</f>
         <v>5.3753264610486804</v>
       </c>
-      <c r="I25" s="2">
-        <f>D11/I11</f>
+      <c r="J25" s="2">
+        <f>E11/J11</f>
         <v>3.302311559955379</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="4">
-        <f>E12/F12</f>
+      <c r="G26" s="4">
+        <f>F12/G12</f>
         <v>5.4332514332514332</v>
       </c>
-      <c r="G26" s="2">
-        <f>E12/G12</f>
+      <c r="H26" s="2">
+        <f>F12/H12</f>
         <v>5.4022801302931596</v>
       </c>
-      <c r="H26" s="3">
-        <f>C12/H12</f>
+      <c r="I26" s="3">
+        <f>C12/I12</f>
         <v>6.0236475141278873</v>
       </c>
-      <c r="I26" s="2">
-        <f>D12/I12</f>
+      <c r="J26" s="2">
+        <f>E12/J12</f>
         <v>5.855101686649804</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="4">
-        <f>E14/F14</f>
+      <c r="G28" s="4">
+        <f>F14/G14</f>
         <v>2.0984138428262438</v>
       </c>
-      <c r="G28" s="2">
-        <f>E14/G14</f>
+      <c r="H28" s="2">
+        <f>F14/H14</f>
         <v>2.0817165847116677</v>
       </c>
-      <c r="H28" s="2">
-        <f>C14/H14</f>
+      <c r="I28" s="2">
+        <f>C14/I14</f>
         <v>1.4332865549544704</v>
       </c>
-      <c r="I28" s="3">
-        <f>D14/I14</f>
+      <c r="J28" s="3">
+        <f>E14/J14</f>
         <v>3.7166923108959922</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="I29" s="2">
-        <f>D15/I15</f>
+      <c r="G29" s="2"/>
+      <c r="J29" s="2">
+        <f>E15/J15</f>
         <v>3.7883466162968773</v>
       </c>
+      <c r="K29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -243,12 +243,12 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -330,7 +330,9 @@
       <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="n">
+        <v>1829.37</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -359,7 +361,9 @@
       <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="n">
+        <v>253.21</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -374,7 +378,9 @@
       <c r="B8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="n">
+        <v>5701.57</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t xml:space="preserve">THREADS =</t>
   </si>
@@ -46,38 +46,27 @@
     <t xml:space="preserve">CUDA</t>
   </si>
   <si>
-    <t xml:space="preserve">EXAMPLE 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAMPLE 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAMPLE 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAMPLE 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAMPLE 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAMPLE 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAMPLE 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAMPLE 08</t>
+    <t xml:space="preserve">ADD VECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPLACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APROX PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGRATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -147,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -155,44 +144,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,61 +202,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1023" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3" t="n">
+        <v>2615.266</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -272,13 +266,15 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3" t="n">
+        <v>2020.48</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -286,13 +282,10 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -300,26 +293,25 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>28518.067</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -327,13 +319,15 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>2460.153</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -341,13 +335,10 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -355,13 +346,10 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -369,207 +357,188 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="4"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t xml:space="preserve">THREADS =</t>
   </si>
@@ -52,10 +52,22 @@
     <t xml:space="preserve">REPLACE</t>
   </si>
   <si>
+    <t xml:space="preserve">MATRIX X VECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINIMUM</t>
+  </si>
+  <si>
     <t xml:space="preserve">APROX PI</t>
   </si>
   <si>
     <t xml:space="preserve">INTEGRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERGE SORT</t>
   </si>
 </sst>
 </file>
@@ -161,11 +173,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,10 +221,10 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -258,12 +270,14 @@
       <c r="C3" s="3" t="n">
         <v>2615.266</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="D3" s="3" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -275,126 +289,168 @@
       <c r="C4" s="3" t="n">
         <v>2020.48</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="D4" s="3" t="n">
+        <v>223</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>167.917</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>329.4</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1957.571</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>239.2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>28518.067</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="D7" s="3" t="n">
+        <v>46102.6</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>2460.153</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="D8" s="3" t="n">
+        <v>19891.9</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>6765.946</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1047.5</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1464.573</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>10576.1</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1"/>
@@ -423,7 +479,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,28 +487,28 @@
         <v>2</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="5"/>
       <c r="I20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,7 +517,7 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
@@ -469,7 +525,7 @@
       <c r="A22" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -479,7 +535,7 @@
       <c r="A23" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
       <c r="H23" s="7"/>
@@ -489,8 +545,8 @@
       <c r="A24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="7"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
@@ -499,10 +555,10 @@
       <c r="A25" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="7"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,16 +566,16 @@
         <v>10</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="5"/>
       <c r="I27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,8 +583,8 @@
         <v>12</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
     </row>
@@ -536,8 +592,8 @@
       <c r="A29" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="10"/>
     </row>
   </sheetData>

--- a/speedup.xlsx
+++ b/speedup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t xml:space="preserve">THREADS =</t>
   </si>
@@ -193,11 +193,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -221,10 +221,10 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -273,8 +273,12 @@
       <c r="D3" s="3" t="n">
         <v>153.2</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3" t="n">
+        <v>192</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>124.3</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -292,8 +296,12 @@
       <c r="D4" s="3" t="n">
         <v>223</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>87.8</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -311,8 +319,12 @@
       <c r="D5" s="3" t="n">
         <v>329.4</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>157</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -330,8 +342,12 @@
       <c r="D6" s="3" t="n">
         <v>239.2</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3" t="n">
+        <v>173.7</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>253.7</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -349,8 +365,12 @@
       <c r="D7" s="3" t="n">
         <v>46102.6</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3" t="n">
+        <v>8761</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>8489.2</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -368,8 +388,12 @@
       <c r="D8" s="3" t="n">
         <v>19891.9</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3" t="n">
+        <v>3374.9</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>3485.2</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -387,8 +411,12 @@
       <c r="D9" s="3" t="n">
         <v>1047.5</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>235.7</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -406,8 +434,12 @@
       <c r="D10" s="3" t="n">
         <v>10576.1</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3" t="n">
+        <v>3223.8</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>2896.7</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -476,8 +508,17 @@
       <c r="A17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <f aca="false">D3/E3</f>
+        <v>0.797916666666667</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">D3/F3</f>
+        <v>1.23250201126307</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="5"/>
       <c r="I17" s="8"/>
@@ -486,8 +527,17 @@
       <c r="A18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <f aca="false">D4/E4</f>
+        <v>1.02293577981651</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <f aca="false">D4/F4</f>
+        <v>2.53986332574032</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="5"/>
       <c r="I18" s="8"/>
@@ -496,8 +546,17 @@
       <c r="A19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <f aca="false">D5/E5</f>
+        <v>2.0613266583229</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">D5/F5</f>
+        <v>2.09808917197452</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="5"/>
       <c r="I19" s="8"/>
@@ -506,17 +565,35 @@
       <c r="A20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <f aca="false">D6/E6</f>
+        <v>1.37708693149108</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">D6/F6</f>
+        <v>0.942845880961766</v>
+      </c>
       <c r="G20" s="5"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <f aca="false">D7/E7</f>
+        <v>5.26225316744664</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">D7/F7</f>
+        <v>5.43073552278189</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
@@ -525,8 +602,17 @@
       <c r="A22" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <f aca="false">D8/E8</f>
+        <v>5.89407093543512</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">D8/F8</f>
+        <v>5.70753471823712</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="8"/>
@@ -535,21 +621,39 @@
       <c r="A23" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <f aca="false">D9/E9</f>
+        <v>4.62472406181016</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">D9/F9</f>
+        <v>4.44420873992363</v>
+      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <f aca="false">D10/E10</f>
+        <v>3.28063155282586</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">D10/F10</f>
+        <v>3.65108571823109</v>
+      </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -557,9 +661,9 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -567,16 +671,16 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="I27" s="10"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -585,8 +689,8 @@
       <c r="E28" s="7"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -594,7 +698,7 @@
       </c>
       <c r="E29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
